--- a/UnityNamespace/src/main/resources/templates/all-namespace-zh-CN.xlsx
+++ b/UnityNamespace/src/main/resources/templates/all-namespace-zh-CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="16" r:id="rId1"/>
@@ -516,12 +516,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>必须为模板设定唯一标识，并且不允许重复提交。若留空，则平台会自动生成别名。</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>确定路径的层级关系。层级的最后一层就是路径名称。如果别名为空且平台上有同名的路径存在，则会创建一个新的路径，并在其名称后添加一个编号。</t>
+  </si>
+  <si>
+    <t>必须为每条路径设定唯一标识，并且不允许重复提交。若该字段留空，平台将自动生成别名。</t>
+  </si>
+  <si>
+    <t>templateAlias</t>
+  </si>
+  <si>
+    <t>与该路径相关联的模板的别名。该别名必须存在于该平台上或在导入的主题中。</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>主题唯一标识符。不允许重复提交。若该字段留空，平台将自动生成别名。</t>
+  </si>
+  <si>
+    <t>与主题相关的模板别名。该别名必须存在于平台上或已导入的主题中。</t>
+  </si>
+  <si>
+    <t>generateDashboard</t>
+  </si>
+  <si>
+    <t>必须为“TRUE”或“FALSE”。“真”意味着将生成一个仪表盘来展示主题数据。</t>
+  </si>
+  <si>
+    <t>enableHistory</t>
+  </si>
+  <si>
+    <t>必须是“TRUE”或“FALSE”。TRUE表示数据将存储在备份数据库中。</t>
+  </si>
+  <si>
+    <t>mockData</t>
+  </si>
+  <si>
+    <t>必须是“TRUE”或“FALSE”。TRUE表示将生成一个NodeRed数据流，以向该主题传输模拟数据。</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>与主题绑定的标签必须存在于平台上或已导入的主题中。</t>
+  </si>
+  <si>
+    <t>Topic-calculate/aggregation/reference</t>
+  </si>
+  <si>
+    <t>refers</t>
+  </si>
+  <si>
+    <t>该主题所提及的其他内容。被提及的主题及其别名必须存在于该平台或导入的主题中。</t>
+  </si>
+  <si>
+    <t>Topic-calculate</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>计算表达式结合相关主题来计算字段值。命名格式：必须为 a1、a2、a3…… 其中 a1 对应于“引用”中的第一个主题，a2 对应于第二个主题，依此类推。</t>
+  </si>
+  <si>
+    <t>Topic-aggregation</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>聚合频率以 h（小时）、m（分钟）或 s（秒）为单位表示。</t>
+  </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>alias</t>
   </si>
   <si>
     <t>fields</t>
@@ -552,31 +645,13 @@
     <t>↓↓↓ Please enter your label start with row 5 ↓↓↓</t>
   </si>
   <si>
-    <t>namespace</t>
-  </si>
-  <si>
     <t>displayName</t>
   </si>
   <si>
-    <t>templateAlias</t>
-  </si>
-  <si>
     <t>folder1</t>
   </si>
   <si>
     <t>folder1/folder2</t>
-  </si>
-  <si>
-    <t>generateDashboard</t>
-  </si>
-  <si>
-    <t>enableHistory</t>
-  </si>
-  <si>
-    <t>mockData</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>example/factory/ac</t>
@@ -617,12 +692,6 @@
     <t>rel2_xxx</t>
   </si>
   <si>
-    <t>refers</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
     <t>folder1/cal1</t>
   </si>
   <si>
@@ -645,9 +714,6 @@
   </si>
   <si>
     <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx"},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
-  </si>
-  <si>
-    <t>frequency</t>
   </si>
   <si>
     <t>example/folder1/agg1</t>
@@ -693,7 +759,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +770,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1225,137 +1306,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,6 +1474,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1705,14 +1795,164 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="131.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="1:3">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="37.5" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:3">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" spans="1:3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="1:3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="56.25" spans="1:3">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="37.5" spans="1:3">
+      <c r="A13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="1:3">
+      <c r="A14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1737,41 +1977,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" ht="27" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="12" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1803,22 +2043,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:1">
       <c r="A4" s="13" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1845,45 +2085,45 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="27" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -1928,47 +2168,47 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="b">
@@ -1981,20 +2221,20 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="b">
@@ -2007,12 +2247,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2039,7 +2279,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2057,47 +2297,47 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="b">
@@ -2110,20 +2350,20 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="b">
@@ -2136,12 +2376,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2188,52 +2428,52 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="40.5" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="b">
@@ -2243,25 +2483,25 @@
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="45" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5" t="b">
@@ -2271,12 +2511,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2322,46 +2562,46 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="27" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="b">
@@ -2371,22 +2611,22 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="46" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="b">
@@ -2396,12 +2636,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2444,40 +2684,40 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="b">
@@ -2487,19 +2727,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="b">
@@ -2509,12 +2749,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>

--- a/UnityNamespace/src/main/resources/templates/all-namespace-zh-CN.xlsx
+++ b/UnityNamespace/src/main/resources/templates/all-namespace-zh-CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="16" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Topic-calculate" sheetId="12" r:id="rId7"/>
     <sheet name="Topic-aggregation" sheetId="13" r:id="rId8"/>
     <sheet name="Topic-reference" sheetId="14" r:id="rId9"/>
+    <sheet name="Topic-jsonb" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -483,7 +484,53 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必须为“TRUE”或“FLASE”。“TRUE”意味着将生成一个仪表盘来展示主题数据。</t>
+          <t>与主题相关的标签必须存在于平台中或者在导入的文件里。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Topic unique identifier. Duplicate submissions are not allowed. The platform will automatically generate alias when left empty</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必须是TRUE或FALSE。TRUE表示数据将存储在备份数据库中。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>绑定到主题的标签必须存在于平台上或导入的文件中。</t>
         </r>
       </text>
     </comment>
@@ -495,19 +542,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必须为“TRUE”或“FLASE”。“TRUE”意味着数据将被存储在备份数据库中。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>与主题相关的标签必须存在于平台中或者在导入的文件里。</t>
+          <t>必须是TRUE或FALSE。TRUE表示将生成一个仪表板来显示主题数据。</t>
         </r>
       </text>
     </comment>
@@ -516,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -701,7 +736,7 @@
     <t>[{"name":"t0","type":"integer"}]</t>
   </si>
   <si>
-    <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx","uts":true},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
+    <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx"},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
   </si>
   <si>
     <t>a1+a2&gt;0</t>
@@ -713,9 +748,6 @@
     <t>cal2_xxx</t>
   </si>
   <si>
-    <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx"},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
-  </si>
-  <si>
     <t>example/folder1/agg1</t>
   </si>
   <si>
@@ -747,6 +779,9 @@
   </si>
   <si>
     <t>ref2_xxx</t>
+  </si>
+  <si>
+    <t>parentDataType</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1186,6 +1221,43 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1312,7 +1384,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,34 +1396,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1436,7 +1508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1444,6 +1516,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1453,21 +1528,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1798,7 +1879,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1809,142 +1890,142 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="56.25" spans="1:3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" ht="37.5" spans="1:3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1955,6 +2036,118 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="3" width="33.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="58.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="17.875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1990,32 +2183,32 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2047,17 +2240,17 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2104,36 +2297,36 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" ht="27" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2199,70 +2392,70 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="b">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="b">
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="b">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="b">
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2328,70 +2521,70 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="b">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="b">
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="b">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="b">
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2410,7 +2603,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2458,75 +2651,75 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" ht="27" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="b">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="45" customHeight="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="b">
+      <c r="G3" s="8"/>
+      <c r="H3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2573,7 +2766,7 @@
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2590,67 +2783,67 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="27" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="46" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="b">
+      <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="46" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2665,24 +2858,22 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B3" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="3" width="33.0916666666667" customWidth="1"/>
     <col min="4" max="4" width="58.3666666666667" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.3666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:8">
+    <row r="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2699,74 +2890,54 @@
         <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:6">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
